--- a/artfynd/Käringberget SO artfynd.xlsx
+++ b/artfynd/Käringberget SO artfynd.xlsx
@@ -1073,10 +1073,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70231196</v>
+        <v>65143014</v>
       </c>
       <c r="B6" t="n">
-        <v>80083</v>
+        <v>39422</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,37 +1084,45 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Lunglav</t>
-        </is>
+        <v>256295</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Xorides depressus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Holmgren, 1860)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Käringberget, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>678334</v>
+        <v>678538</v>
       </c>
       <c r="R6" t="n">
-        <v>7111104</v>
+        <v>7110137</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1138,12 +1146,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2018-03-29</t>
+          <t>2011-05-01</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2018-03-29</t>
+          <t>2011-08-01</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1152,28 +1160,29 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Niklas Johansson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Niklas Johansson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65143014</v>
+        <v>70231196</v>
       </c>
       <c r="B7" t="n">
-        <v>39422</v>
+        <v>80083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,45 +1190,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>256295</v>
+        <v>6458</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Xorides depressus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Holmgren, 1860)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Käringberget, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>678538</v>
+        <v>678334</v>
       </c>
       <c r="R7" t="n">
-        <v>7110137</v>
+        <v>7111104</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1243,12 +1244,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2011-05-01</t>
+          <t>2018-03-29</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2011-08-01</t>
+          <t>2018-03-29</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1257,19 +1258,18 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Niklas Johansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Niklas Johansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>

--- a/artfynd/Käringberget SO artfynd.xlsx
+++ b/artfynd/Käringberget SO artfynd.xlsx
@@ -1073,10 +1073,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65143014</v>
+        <v>70231196</v>
       </c>
       <c r="B6" t="n">
-        <v>39422</v>
+        <v>80083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,45 +1084,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>256295</v>
+        <v>6458</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Xorides depressus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Holmgren, 1860)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Käringberget, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>678538</v>
+        <v>678334</v>
       </c>
       <c r="R6" t="n">
-        <v>7110137</v>
+        <v>7111104</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1146,12 +1138,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2011-05-01</t>
+          <t>2018-03-29</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2011-08-01</t>
+          <t>2018-03-29</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1160,29 +1152,28 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Niklas Johansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Niklas Johansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70231196</v>
+        <v>65143014</v>
       </c>
       <c r="B7" t="n">
-        <v>80083</v>
+        <v>39422</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,37 +1181,45 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Lunglav</t>
-        </is>
+        <v>256295</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Xorides depressus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Holmgren, 1860)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Käringberget, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>678334</v>
+        <v>678538</v>
       </c>
       <c r="R7" t="n">
-        <v>7111104</v>
+        <v>7110137</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1244,12 +1243,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2018-03-29</t>
+          <t>2011-05-01</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2018-03-29</t>
+          <t>2011-08-01</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1258,18 +1257,19 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Niklas Johansson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Niklas Johansson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
